--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22466B8F-4B6B-194D-8B44-457D35E6E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{8A1C6BB5-BB3F-C741-9F67-BF64F5AF9D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>testcaseid</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Testcase3</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>No products found</t>
   </si>
 </sst>
 </file>
@@ -420,41 +429,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401D81CA-B933-7B4E-922C-BE28AFC65563}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{8A1C6BB5-BB3F-C741-9F67-BF64F5AF9D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D262C058-60B2-964E-963F-6BA70B85D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>testcaseid</t>
-  </si>
-  <si>
-    <t>productname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="10">
   <si>
     <t>Apple iPhone 14</t>
   </si>
@@ -49,9 +43,6 @@
   </si>
   <si>
     <t>Testcase3</t>
-  </si>
-  <si>
-    <t>result</t>
   </si>
   <si>
     <t>xxxx</t>
@@ -431,54 +422,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401D81CA-B933-7B4E-922C-BE28AFC65563}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+      <c r="A1">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D262C058-60B2-964E-963F-6BA70B85D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4C7B3BF3-810B-AA4C-8F69-C83386A0CA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Apple iPhone 14</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>No products found</t>
+  </si>
+  <si>
+    <t>Testcase4</t>
+  </si>
+  <si>
+    <t>Please enter a search term.</t>
   </si>
 </sst>
 </file>
@@ -420,9 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401D81CA-B933-7B4E-922C-BE28AFC65563}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -464,6 +472,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4C7B3BF3-810B-AA4C-8F69-C83386A0CA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D0147213-1A52-5742-BE1A-7A308B60DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,15 +428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401D81CA-B933-7B4E-922C-BE28AFC65563}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D0147213-1A52-5742-BE1A-7A308B60DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{58F12B96-EBE0-6347-83CD-1406514F2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{58F12B96-EBE0-6347-83CD-1406514F2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4E8EC852-7884-174B-8363-A9134BD1DBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Apple iPhone 14</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Please enter a search term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401D81CA-B933-7B4E-922C-BE28AFC65563}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -474,6 +479,9 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
